--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAR406353\Documents\FINANZAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nestor.guerrero\Documents\R\git - R\gapMinderPractice\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$236</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="191">
   <si>
     <t xml:space="preserve">MES </t>
   </si>
@@ -161,12 +164,6 @@
     <t>MARZO</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>31/02/2017</t>
-  </si>
-  <si>
     <t>Retiro para almuerzo y cena</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
   </si>
   <si>
     <t>OCTUBRE</t>
-  </si>
-  <si>
-    <t>09/10(2017</t>
   </si>
   <si>
     <t>Retiro para cuentas del mes</t>
@@ -694,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -709,8 +703,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -993,24 +993,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="11.5546875" style="13"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1023,32 +1024,32 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2017</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>1000000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1077,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2017</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1153,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2017</v>
       </c>
@@ -1191,14 +1192,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2017</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>40000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1377,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2017</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>17000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1415,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2017</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>300000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1454,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2017</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1492,14 +1493,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1528,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2017</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1566,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2017</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>600000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1604,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>400000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1642,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2017</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>50000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1680,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2017</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2017</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>29400</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1832,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2017</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2017</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>50000</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1908,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2017</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2017</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>600000</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1984,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2017</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>600000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2022,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2017</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>300000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2017</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>20000</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2098,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2017</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>28900</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2136,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2017</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2017</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>50000</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2212,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2017</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>20000</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2250,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2017</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>52000</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2288,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2017</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2017</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>50000</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2364,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2017</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2017</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2017</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2017</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2017</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>1000000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2554,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2017</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>42795</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6">
         <v>15500</v>
@@ -2592,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2017</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>42795</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6">
         <v>81000</v>
@@ -2630,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2017</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>42795</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="6">
         <v>122000</v>
@@ -2668,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2017</v>
       </c>
@@ -2679,13 +2680,13 @@
         <v>42796</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E45" s="5">
         <v>2000000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2017</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2017</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>42828</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" s="5">
         <v>40000</v>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2017</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2017</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>42802</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" s="5">
         <v>47800</v>
@@ -2896,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2017</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>42802</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5">
         <v>50000</v>
@@ -2934,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2017</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>42803</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5">
         <v>11500</v>
@@ -2972,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2017</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>42804</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E53" s="5">
         <v>60000</v>
@@ -3010,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2017</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>42805</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="5">
         <v>128260</v>
@@ -3048,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2017</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>42813</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5">
         <v>30000</v>
@@ -3086,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2017</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>42815</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="5">
         <v>30000</v>
@@ -3124,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2017</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>42816</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="5">
         <v>30000</v>
@@ -3162,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2017</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>42796</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E58" s="5">
         <v>500000</v>
@@ -3200,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2017</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>42805</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E59" s="5">
         <v>85000</v>
@@ -3238,16 +3239,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2017</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="3" t="s">
         <v>43</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>1000000</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3276,18 +3275,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2017</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C61" s="14"/>
       <c r="D61" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" s="5">
         <v>175760</v>
@@ -3314,18 +3311,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2017</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C62" s="15"/>
       <c r="D62" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="5">
         <v>175760</v>
@@ -3352,18 +3347,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2017</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C63" s="15"/>
       <c r="D63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E63" s="5">
         <v>43940</v>
@@ -3390,24 +3383,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2017</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2">
         <v>42825</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E64" s="5">
         <v>1000000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3428,18 +3421,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2017</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2">
         <v>42825</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E65" s="5">
         <v>500000</v>
@@ -3466,18 +3459,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2017</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2">
         <v>42825</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E66" s="5">
         <v>80000</v>
@@ -3504,24 +3497,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2017</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2">
         <v>42826</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E67" s="5">
         <v>955000</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3542,18 +3535,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2017</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2">
         <v>42826</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="5">
         <v>80000</v>
@@ -3580,18 +3573,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2017</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2">
         <v>42827</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" s="5">
         <v>160000</v>
@@ -3618,18 +3611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2017</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2">
         <v>42828</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E70" s="5">
         <v>80000</v>
@@ -3656,18 +3649,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2017</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2">
         <v>42830</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E71" s="5">
         <v>80000</v>
@@ -3694,18 +3687,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2017</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2">
         <v>42832</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E72" s="5">
         <v>80000</v>
@@ -3732,18 +3725,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2017</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2">
         <v>42832</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E73" s="5">
         <v>80000</v>
@@ -3770,24 +3763,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2017</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2">
         <v>42834</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E74" s="5">
         <v>355400</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3808,18 +3801,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2017</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2">
         <v>42834</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E75" s="5">
         <v>80000</v>
@@ -3846,18 +3839,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2017</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2">
         <v>42835</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E76" s="5">
         <v>80000</v>
@@ -3884,18 +3877,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2017</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2">
         <v>42836</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E77" s="5">
         <v>80000</v>
@@ -3922,24 +3915,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2017</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2">
         <v>42836</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" s="5">
         <v>89702</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3960,18 +3953,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2017</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2">
         <v>42837</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E79" s="5">
         <v>80000</v>
@@ -3998,18 +3991,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2017</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2">
         <v>42841</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E80" s="5">
         <v>320000</v>
@@ -4036,18 +4029,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2017</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2">
         <v>42841</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E81" s="5">
         <v>10000</v>
@@ -4074,16 +4067,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2017</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E82" s="5">
         <v>85500</v>
@@ -4110,24 +4103,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2017</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2">
         <v>42853</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E83" s="5">
         <v>1000000</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4148,18 +4141,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2017</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2">
         <v>42853</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E84" s="5">
         <v>400000</v>
@@ -4186,18 +4179,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2017</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2">
         <v>42853</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E85" s="5">
         <v>400000</v>
@@ -4224,24 +4217,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2017</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2">
         <v>42853</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E86" s="5">
         <v>300000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4262,24 +4255,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2017</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2">
         <v>42853</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E87" s="5">
         <v>400000</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4300,24 +4293,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2017</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2">
         <v>42853</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E88" s="5">
         <v>400000</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4338,24 +4331,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2017</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C89" s="2">
         <v>42856</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4376,24 +4369,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2017</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2">
         <v>42856</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E90" s="6">
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4414,24 +4407,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2">
         <v>42861</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4452,24 +4445,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2017</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2">
         <v>42861</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E92" s="6">
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4490,24 +4483,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2017</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2">
         <v>42861</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4528,24 +4521,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2017</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2">
         <v>42861</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E94" s="6">
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4566,24 +4559,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2017</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2">
         <v>42889</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E95" s="6">
         <v>16300</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4604,24 +4597,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2017</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2">
         <v>42889</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E96" s="6">
         <v>43400</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4642,24 +4635,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2017</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2">
         <v>42889</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E97" s="6">
         <v>40000</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4680,18 +4673,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2017</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2">
         <v>42889</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E98" s="6">
         <v>30000</v>
@@ -4718,18 +4711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>2017</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2">
         <v>42890</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E99" s="6">
         <v>30000</v>
@@ -4756,18 +4749,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2017</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2">
         <v>42890</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E100" s="6">
         <v>23000</v>
@@ -4794,24 +4787,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2017</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2">
         <v>42889</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E101" s="6">
         <v>10000</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -4832,24 +4825,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2017</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C102" s="2">
         <v>42889</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E102" s="6">
         <v>7000</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -4870,18 +4863,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2017</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2">
         <v>42888</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E103" s="6">
         <v>69100</v>
@@ -4908,18 +4901,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2017</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2">
         <v>42891</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E104" s="6">
         <v>81270</v>
@@ -4946,24 +4939,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2017</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2">
         <v>42891</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E105" s="6">
         <v>600000</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -4984,24 +4977,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2017</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C106" s="2">
         <v>42891</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E106" s="6">
         <v>400000</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5022,18 +5015,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2017</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2">
         <v>42891</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E107" s="6">
         <v>200000</v>
@@ -5060,18 +5053,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2017</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2">
         <v>42891</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E108" s="6">
         <v>300000</v>
@@ -5098,24 +5091,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2017</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2">
         <v>42916</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E109" s="5">
         <v>500000</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5136,24 +5129,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2017</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2">
         <v>42916</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E110" s="5">
         <v>100000</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -5174,24 +5167,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2017</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2">
         <v>42916</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E111" s="5">
         <v>120000</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5212,24 +5205,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2017</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2">
         <v>42916</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E112" s="5">
         <v>1000000</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -5250,18 +5243,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2017</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C113" s="2">
         <v>42916</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E113" s="5">
         <v>952100</v>
@@ -5288,24 +5281,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2017</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2">
         <v>42917</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E114" s="5">
         <v>600000</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -5326,24 +5319,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2017</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C115" s="2">
         <v>42920</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E115" s="5">
         <v>600000</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5364,24 +5357,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2017</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C116" s="2">
         <v>42920</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E116" s="5">
         <v>600000</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5402,24 +5395,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2017</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2">
         <v>42920</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E117" s="5">
         <v>13900</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -5440,24 +5433,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2017</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C118" s="2">
         <v>42920</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E118" s="5">
         <v>38200</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5478,24 +5471,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2017</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C119" s="2">
         <v>42920</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E119" s="5">
         <v>40000</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5516,24 +5509,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2017</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2">
         <v>42921</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E120" s="5">
         <v>37100</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -5554,18 +5547,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2017</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2">
         <v>42921</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E121" s="5">
         <v>500000</v>
@@ -5592,24 +5585,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2017</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2">
         <v>42922</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E122" s="6">
         <v>69000</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5630,24 +5623,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2017</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2">
         <v>42922</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E123" s="5">
         <v>121700</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5668,18 +5661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2017</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2">
         <v>42922</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E124" s="6">
         <v>30500</v>
@@ -5696,7 +5689,7 @@
       <c r="I124">
         <v>0</v>
       </c>
-      <c r="J124" s="13">
+      <c r="J124" s="12">
         <v>0</v>
       </c>
       <c r="K124">
@@ -5706,18 +5699,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2017</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2">
         <v>42923</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E125" s="6">
         <v>10000</v>
@@ -5734,7 +5727,7 @@
       <c r="I125">
         <v>0</v>
       </c>
-      <c r="J125" s="13">
+      <c r="J125" s="12">
         <v>0</v>
       </c>
       <c r="K125">
@@ -5744,18 +5737,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2017</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C126" s="2">
         <v>42923</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E126" s="6">
         <v>81270</v>
@@ -5782,18 +5775,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2017</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2">
         <v>42921</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E127" s="6">
         <v>65000</v>
@@ -5820,24 +5813,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2017</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2">
         <v>42921</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E128" s="6">
         <v>265000</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5858,18 +5851,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2017</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C129" s="2">
         <v>42924</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E129" s="6">
         <v>50000</v>
@@ -5896,24 +5889,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2017</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C130" s="12">
+        <v>82</v>
+      </c>
+      <c r="C130" s="2">
         <v>42925</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E130" s="6">
         <v>82720</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5934,24 +5927,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2017</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C131" s="12">
+        <v>82</v>
+      </c>
+      <c r="C131" s="2">
         <v>42925</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E131" s="6">
         <v>59090</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5972,24 +5965,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2017</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C132" s="12">
+        <v>82</v>
+      </c>
+      <c r="C132" s="2">
         <v>42925</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E132" s="6">
         <v>211139</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6010,24 +6003,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2017</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C133" s="2">
         <v>42928</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E133" s="6">
         <v>11360</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -6048,24 +6041,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2017</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2">
         <v>42928</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E134" s="6">
         <v>54656</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -6086,24 +6079,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2017</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2">
         <v>42928</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E135" s="6">
         <v>21478</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -6124,24 +6117,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2017</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2">
         <v>42928</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E136" s="6">
         <v>130000</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6162,24 +6155,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2017</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C137" s="2">
         <v>42928</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E137" s="5">
         <v>500000</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -6200,24 +6193,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2017</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C138" s="2">
         <v>42924</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E138" s="5">
         <v>1100000</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -6238,18 +6231,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2017</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C139" s="2">
         <v>42924</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E139" s="5">
         <v>50000</v>
@@ -6276,18 +6269,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2017</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C140" s="2">
         <v>42934</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E140" s="5">
         <v>50000</v>
@@ -6314,18 +6307,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2017</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C141" s="2">
         <v>42935</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E141" s="5">
         <v>19900</v>
@@ -6352,18 +6345,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2017</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C142" s="2">
         <v>42935</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E142" s="5">
         <v>50000</v>
@@ -6390,18 +6383,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2017</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C143" s="2">
         <v>42937</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E143" s="5">
         <v>100000</v>
@@ -6428,18 +6421,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2017</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C144" s="2">
         <v>42945</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E144" s="5">
         <v>600000</v>
@@ -6466,24 +6459,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2017</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C145" s="2">
         <v>42953</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E145" s="5">
         <v>500000</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -6504,18 +6497,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2017</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2">
         <v>42945</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E146" s="5">
         <v>100000</v>
@@ -6542,24 +6535,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2017</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C147" s="2">
         <v>42945</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E147" s="5">
         <v>49700</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6580,18 +6573,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2017</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C148" s="2">
         <v>42945</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E148" s="5">
         <v>500000</v>
@@ -6618,18 +6611,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2017</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C149" s="2">
         <v>42945</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E149" s="5">
         <v>100000</v>
@@ -6656,18 +6649,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2017</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C150" s="2">
         <v>42945</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E150" s="5">
         <v>83720</v>
@@ -6694,24 +6687,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2017</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C151" s="2">
         <v>42946</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E151" s="5">
         <v>30000</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6732,24 +6725,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2017</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C152" s="2">
         <v>42946</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E152" s="5">
         <v>200000</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -6770,24 +6763,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2017</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C153" s="2">
         <v>42951</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E153" s="5">
         <v>100000</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6808,18 +6801,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2017</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C154" s="2">
         <v>42952</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E154" s="5">
         <v>950400</v>
@@ -6846,24 +6839,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2017</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C155" s="2">
         <v>42949</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E155" s="5">
         <v>1000000</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -6884,18 +6877,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2017</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C156" s="2">
         <v>42950</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E156" s="5">
         <v>83900</v>
@@ -6922,24 +6915,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2017</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C157" s="2">
         <v>42944</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E157" s="5">
         <v>2600000</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -6960,24 +6953,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2017</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C158" s="2">
         <v>42952</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -6998,24 +6991,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2017</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C159" s="2">
         <v>42980</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E159" s="3">
         <v>248000</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -7036,24 +7029,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2017</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C160" s="2">
         <v>42980</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E160" s="5">
         <v>32000</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7074,24 +7067,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2017</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C161" s="2">
         <v>42981</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E161" s="5">
         <v>500000</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -7112,24 +7105,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2017</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C162" s="2">
         <v>42981</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E162" s="5">
         <v>550000</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7150,24 +7143,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2017</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C163" s="2">
         <v>42981</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E163" s="5">
         <v>150000</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -7188,18 +7181,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2017</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C164" s="2">
         <v>42982</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E164" s="5">
         <v>500000</v>
@@ -7226,24 +7219,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2017</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C165" s="2">
         <v>42982</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E165" s="3">
         <v>83900</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -7264,24 +7257,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2017</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C166" s="2">
         <v>42982</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E166" s="5">
         <v>16100</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -7302,24 +7295,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2017</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2">
         <v>42984</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E167" s="5">
         <v>150000</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -7340,24 +7333,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2017</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C168" s="2">
         <v>42989</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E168" s="5">
         <v>950000</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -7378,24 +7371,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2017</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C169" s="2">
         <v>42978</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E169" s="5">
         <v>1000000</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -7416,24 +7409,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>2017</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C170" s="2">
         <v>42979</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E170" s="5">
         <v>136671</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -7454,24 +7447,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2017</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2">
         <v>42980</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E171" s="5">
         <v>27900</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7492,24 +7485,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2017</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C172" s="2">
         <v>42980</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E172" s="5">
         <v>33000</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7530,24 +7523,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2017</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C173" s="2">
         <v>42987</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E173" s="5">
         <v>25900</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -7568,24 +7561,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2017</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2">
         <v>42990</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E174" s="5">
         <v>45400</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -7606,24 +7599,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2017</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2">
         <v>42992</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E175" s="5">
         <v>50000</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -7644,24 +7637,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2017</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C176" s="2">
         <v>42996</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E176" s="5">
         <v>40000</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -7682,24 +7675,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2017</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C177" s="2">
         <v>42997</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E177" s="5">
         <v>20000</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -7720,24 +7713,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2017</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C178" s="2">
         <v>42998</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E178" s="5">
         <v>20000</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -7758,24 +7751,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2017</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C179" s="2">
         <v>42998</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E179" s="5">
         <v>27150</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -7796,24 +7789,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2017</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C180" s="2">
         <v>42998</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E180" s="5">
         <v>30000</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -7834,24 +7827,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>2017</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C181" s="2">
         <v>43000</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E181" s="5">
         <v>20000</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -7872,24 +7865,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>2017</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C182" s="2">
         <v>43007</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E182" s="5">
         <v>18000</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -7910,24 +7903,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2017</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C183" s="12">
+        <v>133</v>
+      </c>
+      <c r="C183" s="2">
         <v>43008</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E183" s="5">
         <v>600000</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -7948,24 +7941,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2017</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C184" s="12">
+        <v>133</v>
+      </c>
+      <c r="C184" s="2">
         <v>43008</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E184" s="5">
         <v>600000</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -7986,24 +7979,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>2017</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C185" s="12">
+        <v>133</v>
+      </c>
+      <c r="C185" s="2">
         <v>43008</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E185" s="5">
         <v>600000</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -8024,24 +8017,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2017</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" s="2">
+        <v>43008</v>
+      </c>
+      <c r="D186" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="C186" s="12">
-        <v>43008</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="E186" s="5">
         <v>259980</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -8062,24 +8055,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2017</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C187" s="2">
         <v>43009</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E187" s="5">
         <v>300000</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -8100,24 +8093,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2017</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C188" s="2">
         <v>43010</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E188" s="5">
         <v>70000</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -8138,24 +8131,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2017</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2">
         <v>43010</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E189" s="5">
         <v>50000</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -8176,24 +8169,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2017</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C190" s="2">
         <v>43010</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E190" s="5">
         <v>26800</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -8214,24 +8207,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2017</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C191" s="2">
         <v>43012</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E191" s="5">
         <v>100000</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -8252,24 +8245,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>2017</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C192" s="2">
         <v>43013</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E192" s="5">
         <v>50000</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -8290,24 +8283,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>2017</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C193" s="2">
         <v>43014</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E193" s="5">
         <v>25900</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -8328,18 +8321,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>2017</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C194" s="2">
         <v>43015</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E194" s="5">
         <v>920000</v>
@@ -8366,24 +8359,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>2017</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C195" s="2">
         <v>43015</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E195" s="5">
         <v>16472</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -8404,24 +8397,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>2017</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C196" s="2">
         <v>43017</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E196" s="5">
         <v>30000</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -8442,24 +8435,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2017</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43017</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E197" s="5">
         <v>20000</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -8480,24 +8473,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2017</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43017</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E198" s="5">
         <v>37500</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -8518,24 +8511,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2017</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C199" s="2">
         <v>43020</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E199" s="5">
         <v>28100</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -8556,24 +8549,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2017</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C200" s="2">
         <v>43020</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E200" s="5">
         <v>20000</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -8594,24 +8587,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2017</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C201" s="2">
         <v>43021</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E201" s="5">
         <v>20000</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -8632,24 +8625,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2017</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C202" s="2">
         <v>43025</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E202" s="5">
         <v>20000</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -8670,24 +8663,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>2017</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C203" s="2">
         <v>43026</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E203" s="5">
         <v>20000</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -8708,24 +8701,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>2017</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C204" s="2">
         <v>43013</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E204" s="5">
         <v>87000</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -8746,24 +8739,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>2017</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C205" s="2">
         <v>43038</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E205" s="5">
         <v>600000</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -8784,24 +8777,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>2017</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C206" s="2">
         <v>43038</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E206" s="5">
         <v>600000</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -8822,24 +8815,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>2017</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C207" s="2">
         <v>43038</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E207" s="5">
         <v>600000</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -8860,24 +8853,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2017</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C208" s="2">
         <v>43038</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E208" s="5">
         <v>458500</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -8898,24 +8891,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2017</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C209" s="2">
         <v>43039</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E209" s="5">
         <v>400000</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -8936,24 +8929,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2017</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C210" s="2">
         <v>43039</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E210" s="5">
         <v>300000</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -8974,24 +8967,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2017</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C211" s="2">
         <v>43040</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E211" s="5">
         <v>272165</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -9012,24 +9005,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2017</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C212" s="2">
         <v>43040</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E212" s="5">
         <v>55350</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -9050,24 +9043,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2017</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C213" s="2">
         <v>43041</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E213" s="5">
         <v>50000</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -9088,24 +9081,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>2017</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C214" s="2">
         <v>43041</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E214" s="5">
         <v>88000</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -9126,24 +9119,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>2017</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C215" s="2">
         <v>43041</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E215" s="5">
         <v>240000</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -9164,24 +9157,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>2017</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C216" s="2">
         <v>43042</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E216" s="5">
         <v>50000</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -9202,24 +9195,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>2017</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C217" s="2">
         <v>43042</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E217" s="5">
         <v>500000</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -9240,24 +9233,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2017</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C218" s="2">
         <v>43043</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E218" s="5">
         <v>25900</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -9278,25 +9271,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2017</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C219" s="2">
         <v>43043</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E219" s="1">
         <f>950000+34200</f>
         <v>984200</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9317,24 +9310,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>2017</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C220" s="2">
         <v>43044</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E220" s="5">
         <v>18000</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -9355,24 +9348,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2017</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C221" s="2">
         <v>43044</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E221" s="5">
         <v>34600</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -9393,24 +9386,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2017</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C222" s="2">
         <v>43044</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E222" s="5">
         <v>70000</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9431,24 +9424,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2017</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C223" s="2">
         <v>43069</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E223" s="5">
         <v>20000</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -9469,25 +9462,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2017</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C224" s="2">
         <v>43069</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E224" s="1">
         <f>1300000+700000</f>
         <v>2000000</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9508,24 +9501,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2017</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C225" s="2">
         <v>43069</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E225" s="1">
         <v>100000</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9546,24 +9539,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2017</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C226" s="2">
         <v>43070</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E226" s="1">
         <v>40000</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9584,24 +9577,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2017</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C227" s="2">
         <v>43070</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E227" s="1">
         <v>600000</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9622,24 +9615,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2017</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C228" s="2">
         <v>43070</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E228" s="1">
         <v>50000</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -9660,24 +9653,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>2017</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C229" s="2">
         <v>43070</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E229" s="1">
         <v>590000</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9698,24 +9691,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2017</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C230" s="2">
         <v>43070</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E230" s="1">
         <v>81470</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -9736,24 +9729,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2017</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C231" s="2">
         <v>43070</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E231" s="1">
         <v>20043</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -9774,24 +9767,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>2017</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C232" s="2">
         <v>43072</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E232" s="1">
         <v>380000</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9812,24 +9805,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>2017</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C233" s="2">
         <v>43076</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E233" s="1">
         <v>100000</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9850,24 +9843,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>2017</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C234" s="2">
         <v>43078</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E234" s="1">
         <v>952100</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9888,18 +9881,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2017</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C235" s="2">
         <v>43081</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E235" s="1">
         <v>120000</v>
@@ -9926,24 +9919,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2017</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C236" s="2">
         <v>43082</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E236" s="1">
         <v>30000</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -9965,6 +9958,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L236"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>